--- a/face_recognition/CheckList.xlsx
+++ b/face_recognition/CheckList.xlsx
@@ -14,18 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>승재</t>
-  </si>
-  <si>
-    <t>2019-09-04 19:27:57</t>
   </si>
 </sst>
 </file>
@@ -383,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="B1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,7 +386,7 @@
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -400,17 +394,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/face_recognition/CheckList.xlsx
+++ b/face_recognition/CheckList.xlsx
@@ -14,12 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>seungjae</t>
+  </si>
+  <si>
+    <t>youngeun</t>
+  </si>
+  <si>
+    <t>kyunglim</t>
+  </si>
+  <si>
+    <t>2019-10-05 15:27:30</t>
+  </si>
+  <si>
+    <t>2019-10-05 15:27:33</t>
+  </si>
+  <si>
+    <t>2019-10-05 15:27:38</t>
   </si>
 </sst>
 </file>
@@ -377,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,12 +404,45 @@
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
